--- a/2023 - Juin -_Finanzbericht   Gesamt    gesichert.xlsx
+++ b/2023 - Juin -_Finanzbericht   Gesamt    gesichert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc00T349\Desktop\HFA\2023\06.Juin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDE3DF9-85E0-4F2C-855F-1B876F9C11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BECC3-B329-4198-97C1-0B2EBCB34754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,9 +1176,6 @@
     <t>Scheck N° 4223872</t>
   </si>
   <si>
-    <t>2. und letzte auszahlung Brunnen Patar</t>
-  </si>
-  <si>
     <t>Vertiefung Brunnen Ngollar</t>
   </si>
   <si>
@@ -1192,6 +1189,9 @@
   </si>
   <si>
     <t>Autobahn Gebühren</t>
+  </si>
+  <si>
+    <t>2. und letzte Auszahlung Brunnen Patar</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4682,7 @@
   <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,11 +4844,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="17">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="0"/>
-        <v>1524.5064410397133</v>
+        <v>762.25322051985665</v>
       </c>
       <c r="AMG11"/>
       <c r="AMH11"/>
@@ -4983,10 +4983,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="146">
         <v>52400</v>
@@ -5018,7 +5018,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="145" t="s">
         <v>15</v>
@@ -5256,7 +5256,7 @@
         <v>180</v>
       </c>
       <c r="F21" s="145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="148">
         <v>4000</v>
@@ -11605,11 +11605,11 @@
       </c>
       <c r="I33" s="124">
         <f>SUM(I10:I32)</f>
-        <v>1674488</v>
+        <v>1174488</v>
       </c>
       <c r="J33" s="130">
         <f>I33/655.95</f>
-        <v>2552.7677414437076</v>
+        <v>1790.5145209238508</v>
       </c>
       <c r="AMG33"/>
       <c r="AMH33"/>
@@ -11629,11 +11629,11 @@
       <c r="F34" s="156"/>
       <c r="G34" s="29">
         <f>I33-G33</f>
-        <v>1385550</v>
+        <v>885550</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="3"/>
-        <v>2112.3121017166204</v>
+        <v>1350.0472604201602</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
@@ -12256,7 +12256,7 @@
   <dimension ref="A2:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12477,7 +12477,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="89">
         <v>2231200</v>
@@ -12519,7 +12519,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="89">
         <v>1000000</v>
@@ -12747,7 +12747,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13152,7 +13152,7 @@
   <dimension ref="A2:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
